--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_6.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_6.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009303808212280273</v>
+        <v>0.0008790493011474609</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003719329833984375</v>
+        <v>0.0004620552062988281</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0008611679077148438</v>
+        <v>0.0005598068237304688</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 0), (2, 1), (1, 2), (1, 1), (1, 0), (0, 1)]</t>
+          <t>[[0, 0], [2, 1], [1, 2], [1, 1], [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[(0, 1), (0, 2), (0, 0), (1, 0), (1, 1), (1, 2)]</t>
+          <t>[[0, 1], [0, 2], [0, 0], [1, 0], [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -852,110 +852,120 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>0.9996477480570438</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01602888107299805</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.006505012512207031</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_6.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_6.qasm_rb2_archsize3_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0008790493011474609</v>
+        <v>0.0002079010009765625</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0004620552062988281</v>
+        <v>0.0001261234283447266</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0005598068237304688</v>
+        <v>0.005115270614624023</v>
       </c>
     </row>
     <row r="8">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.006505012512207031</v>
+        <v>0.01038408279418945</v>
       </c>
     </row>
     <row r="62">
